--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3a</t>
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H2">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J2">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>121.2310156989921</v>
+        <v>104.4769026711396</v>
       </c>
       <c r="R2">
-        <v>1091.079141290929</v>
+        <v>940.2921240402561</v>
       </c>
       <c r="S2">
-        <v>0.094659870047222</v>
+        <v>0.02086041029450217</v>
       </c>
       <c r="T2">
-        <v>0.09465987004722201</v>
+        <v>0.02086041029450218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H3">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J3">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>60.96710124172579</v>
+        <v>48.68444222461155</v>
       </c>
       <c r="R3">
-        <v>548.703911175532</v>
+        <v>438.159980021504</v>
       </c>
       <c r="S3">
-        <v>0.04760446695445422</v>
+        <v>0.0097205929138338</v>
       </c>
       <c r="T3">
-        <v>0.04760446695445422</v>
+        <v>0.009720592913833804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H4">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J4">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>19.73146933693445</v>
+        <v>13.64009827879111</v>
       </c>
       <c r="R4">
-        <v>177.58322403241</v>
+        <v>122.76088450912</v>
       </c>
       <c r="S4">
-        <v>0.01540676956722461</v>
+        <v>0.00272345407719974</v>
       </c>
       <c r="T4">
-        <v>0.01540676956722461</v>
+        <v>0.00272345407719974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.026972333333333</v>
+        <v>0.8200746666666667</v>
       </c>
       <c r="H5">
-        <v>3.080917</v>
+        <v>2.460224</v>
       </c>
       <c r="I5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="J5">
-        <v>0.2032541865322035</v>
+        <v>0.04311293902675128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>58.37830835688678</v>
+        <v>49.12462304246757</v>
       </c>
       <c r="R5">
-        <v>525.4047752119809</v>
+        <v>442.1216073822081</v>
       </c>
       <c r="S5">
-        <v>0.04558307996330265</v>
+        <v>0.009808481741215572</v>
       </c>
       <c r="T5">
-        <v>0.04558307996330265</v>
+        <v>0.009808481741215574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J6">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>160.3115415550531</v>
+        <v>173.0121819440318</v>
       </c>
       <c r="R6">
-        <v>1442.803873995478</v>
+        <v>1557.109637496286</v>
       </c>
       <c r="S6">
-        <v>0.1251748127587231</v>
+        <v>0.03454452619695179</v>
       </c>
       <c r="T6">
-        <v>0.1251748127587231</v>
+        <v>0.03454452619695181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J7">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>80.6207052531138</v>
+        <v>80.62070525311378</v>
       </c>
       <c r="R7">
-        <v>725.5863472780242</v>
+        <v>725.586347278024</v>
       </c>
       <c r="S7">
-        <v>0.06295043754581515</v>
+        <v>0.01609715589584234</v>
       </c>
       <c r="T7">
-        <v>0.06295043754581515</v>
+        <v>0.01609715589584234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J8">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>26.09218646162445</v>
+        <v>22.58779792288556</v>
       </c>
       <c r="R8">
-        <v>234.82967815462</v>
+        <v>203.29018130597</v>
       </c>
       <c r="S8">
-        <v>0.02037335879324642</v>
+        <v>0.004509999055043362</v>
       </c>
       <c r="T8">
-        <v>0.02037335879324642</v>
+        <v>0.004509999055043362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.074094000000001</v>
       </c>
       <c r="I9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="J9">
-        <v>0.2687760370778347</v>
+        <v>0.07139437962203982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>77.1973785100158</v>
+        <v>81.3496380774998</v>
       </c>
       <c r="R9">
-        <v>694.7764065901421</v>
+        <v>732.1467426974982</v>
       </c>
       <c r="S9">
-        <v>0.06027742798004996</v>
+        <v>0.01624269847420232</v>
       </c>
       <c r="T9">
-        <v>0.06027742798004996</v>
+        <v>0.01624269847420232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H10">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J10">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>314.9077189609755</v>
+        <v>2143.7855060979</v>
       </c>
       <c r="R10">
-        <v>2834.169470648779</v>
+        <v>19294.0695548811</v>
       </c>
       <c r="S10">
-        <v>0.2458869422304186</v>
+        <v>0.4280395388574491</v>
       </c>
       <c r="T10">
-        <v>0.2458869422304187</v>
+        <v>0.4280395388574492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H11">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J11">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>158.3671527702489</v>
+        <v>998.9672257235997</v>
       </c>
       <c r="R11">
-        <v>1425.30437493224</v>
+        <v>8990.705031512398</v>
       </c>
       <c r="S11">
-        <v>0.1236565908034782</v>
+        <v>0.199459073408302</v>
       </c>
       <c r="T11">
-        <v>0.1236565908034782</v>
+        <v>0.1994590734083021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.667646666666666</v>
+        <v>16.8273</v>
       </c>
       <c r="H12">
-        <v>8.002939999999999</v>
+        <v>50.4819</v>
       </c>
       <c r="I12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337277</v>
       </c>
       <c r="J12">
-        <v>0.5279697763899619</v>
+        <v>0.8846442749337278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>51.25414453402222</v>
+        <v>279.8843021205</v>
       </c>
       <c r="R12">
-        <v>461.2873008061999</v>
+        <v>2518.9587190845</v>
       </c>
       <c r="S12">
-        <v>0.04002037459637001</v>
+        <v>0.05588317827148647</v>
       </c>
       <c r="T12">
-        <v>0.04002037459637001</v>
+        <v>0.05588317827148648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.8273</v>
+      </c>
+      <c r="H13">
+        <v>50.4819</v>
+      </c>
+      <c r="I13">
+        <v>0.8846442749337277</v>
+      </c>
+      <c r="J13">
+        <v>0.8846442749337278</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>59.90262233333334</v>
+      </c>
+      <c r="N13">
+        <v>179.707867</v>
+      </c>
+      <c r="O13">
+        <v>0.2275066827415657</v>
+      </c>
+      <c r="P13">
+        <v>0.2275066827415658</v>
+      </c>
+      <c r="Q13">
+        <v>1007.9993967897</v>
+      </c>
+      <c r="R13">
+        <v>9071.9945711073</v>
+      </c>
+      <c r="S13">
+        <v>0.20126248439649</v>
+      </c>
+      <c r="T13">
+        <v>0.2012624843964901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.667646666666666</v>
-      </c>
-      <c r="H13">
-        <v>8.002939999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="J13">
-        <v>0.5279697763899619</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>56.84506433333333</v>
-      </c>
-      <c r="N13">
-        <v>170.535193</v>
-      </c>
-      <c r="O13">
-        <v>0.2242663767030476</v>
-      </c>
-      <c r="P13">
-        <v>0.2242663767030476</v>
-      </c>
-      <c r="Q13">
-        <v>151.6425463852689</v>
-      </c>
-      <c r="R13">
-        <v>1364.78291746742</v>
-      </c>
-      <c r="S13">
-        <v>0.118405868759695</v>
-      </c>
-      <c r="T13">
-        <v>0.118405868759695</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.016138</v>
+      </c>
+      <c r="H14">
+        <v>0.048414</v>
+      </c>
+      <c r="I14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J14">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>127.3992563333333</v>
+      </c>
+      <c r="N14">
+        <v>382.197769</v>
+      </c>
+      <c r="O14">
+        <v>0.4838549810199306</v>
+      </c>
+      <c r="P14">
+        <v>0.4838549810199307</v>
+      </c>
+      <c r="Q14">
+        <v>2.055969198707333</v>
+      </c>
+      <c r="R14">
+        <v>18.503722788366</v>
+      </c>
+      <c r="S14">
+        <v>0.0004105056710275276</v>
+      </c>
+      <c r="T14">
+        <v>0.0004105056710275277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.016138</v>
+      </c>
+      <c r="H15">
+        <v>0.048414</v>
+      </c>
+      <c r="I15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J15">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.36586533333332</v>
+      </c>
+      <c r="N15">
+        <v>178.097596</v>
+      </c>
+      <c r="O15">
+        <v>0.2254681108101269</v>
+      </c>
+      <c r="P15">
+        <v>0.2254681108101269</v>
+      </c>
+      <c r="Q15">
+        <v>0.9580463347493332</v>
+      </c>
+      <c r="R15">
+        <v>8.622417012743998</v>
+      </c>
+      <c r="S15">
+        <v>0.0001912885921486619</v>
+      </c>
+      <c r="T15">
+        <v>0.000191288592148662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.016138</v>
+      </c>
+      <c r="H16">
+        <v>0.048414</v>
+      </c>
+      <c r="I16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J16">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.63275166666667</v>
+      </c>
+      <c r="N16">
+        <v>49.898255</v>
+      </c>
+      <c r="O16">
+        <v>0.06317022542837675</v>
+      </c>
+      <c r="P16">
+        <v>0.06317022542837675</v>
+      </c>
+      <c r="Q16">
+        <v>0.2684193463966666</v>
+      </c>
+      <c r="R16">
+        <v>2.41577411757</v>
+      </c>
+      <c r="S16">
+        <v>5.359402464716555E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.359402464716555E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.016138</v>
+      </c>
+      <c r="H17">
+        <v>0.048414</v>
+      </c>
+      <c r="I17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="J17">
+        <v>0.0008484064174811467</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>59.90262233333334</v>
+      </c>
+      <c r="N17">
+        <v>179.707867</v>
+      </c>
+      <c r="O17">
+        <v>0.2275066827415657</v>
+      </c>
+      <c r="P17">
+        <v>0.2275066827415658</v>
+      </c>
+      <c r="Q17">
+        <v>0.9667085192153334</v>
+      </c>
+      <c r="R17">
+        <v>8.700376672938001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001930181296577916</v>
+      </c>
+      <c r="T17">
+        <v>0.0001930181296577917</v>
       </c>
     </row>
   </sheetData>
